--- a/outData/case_震荡下降_70天_振幅70%.xlsx
+++ b/outData/case_震荡下降_70天_振幅70%.xlsx
@@ -115,6 +115,1830 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>34.037300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.847799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.934200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.4971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.071899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.060700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.450399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.017399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.983599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.161899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.024699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.5167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.117799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.072199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.850099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.6249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.3863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.4239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.6602</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.040400000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.340900000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.811499999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.7622</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.8001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.392099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.811199999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.216699999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.390599999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.127300000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.964300000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.963700000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.683399999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.188200000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31.6843</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.539400000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.6038</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.313199999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30.071000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.540199999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.097100000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.797000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.7331</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30.9908</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.482600000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29.751300000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.6462</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.023099999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.642299999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.832599999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.261600000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.049499999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.094000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28.2669</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.048500000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.548299999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30.9956</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.475899999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.0396</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35.2438</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33.003399999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.264200000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.575700000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.006799999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.523900000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.513400000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.816299999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24.815200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>33.612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.936599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.496200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.431000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.564699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.819700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.8489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.6126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.410699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.226500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.102699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.677800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.864999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.9777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.1632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.725300000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.6386</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.735099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.113800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.5016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.9223</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.220400000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.1142</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.955300000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.426400000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.630800000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.8873</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.7517</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37.0244</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.1937</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.0319</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.189399999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.864699999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.172999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.842500000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.363500000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.215</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31.582899999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.785800000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.328800000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.962399999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31.0669</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29.110299999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30.442799999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30.384599999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.034600000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29.6966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.559100000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.410299999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.791799999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.516200000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.228899999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.420999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.2424</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.903500000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.756399999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.818100000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35.823799999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.172800000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30.479299999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.869599999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.831600000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.9679</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24.981999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>29.946899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.942900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.4785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.953299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.924499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.673500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.5825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.203600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.514099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.653300000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.906099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.215900000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.833400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.700800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.5703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.4544</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.205500000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.3172</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.5609</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.873900000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.622900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.945399999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.730399999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.127099999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.2151</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.5291</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.8919</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.0838</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.940899999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.129300000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.034100000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.724899999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.221699999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30.619900000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.085599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.342099999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.368500000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.5078</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.125499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.124199999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.418800000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.261399999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.3886</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.1601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.684699999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.528600000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.209900000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.959900000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.785799999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.429099999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.6248</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.9864</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>28.366099999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.926300000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28.978000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.908100000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.922699999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.313700000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.920999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.358899999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.488900000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28.966899999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.9724</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26.694500000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.5746</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24.822299999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24.140699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.032900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.616700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.418199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.7913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.637799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.208100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.252199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.397300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.962800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.8017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.314699999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.2577</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.746700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.5655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.8498</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.4331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.663500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.063300000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.295200000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.883400000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.140599999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.005500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.667899999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.678899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.831800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.974799999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.052499999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.632200000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.549799999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.882800000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35.904899999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.4666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.812600000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30.960799999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.158300000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.578199999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.586200000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30.552700000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.8276</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.363099999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.934100000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.749500000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.514600000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.222799999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.167200000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.725899999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.114599999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.264800000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.2379</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.378699999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.867899999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.396799999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.599399999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28.899799999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.101500000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.653300000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.557400000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.376300000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>34.082599999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35.737299999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.558500000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.162399999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30.5183</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.270600000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.525500000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.1389</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.508500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="300901664"/>
+        <c:axId val="300902224"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="300901664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300902224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="300902224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300901664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +2207,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F71"/>
+      <selection activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1811,5 +3635,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>